--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Jag2-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Jag2-Notch2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.75560066666667</v>
+        <v>15.93194</v>
       </c>
       <c r="H2">
-        <v>50.266802</v>
+        <v>47.79582</v>
       </c>
       <c r="I2">
-        <v>0.9064438825950116</v>
+        <v>0.9552847657129105</v>
       </c>
       <c r="J2">
-        <v>0.9064438825950115</v>
+        <v>0.9552847657129107</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.96029466666667</v>
+        <v>0.9705896666666667</v>
       </c>
       <c r="N2">
-        <v>95.88088399999999</v>
+        <v>2.911769</v>
       </c>
       <c r="O2">
-        <v>0.3907265741426954</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="P2">
-        <v>0.3907265741426953</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="Q2">
-        <v>535.5139346236631</v>
+        <v>15.46337633395333</v>
       </c>
       <c r="R2">
-        <v>4819.625411612968</v>
+        <v>139.17038700558</v>
       </c>
       <c r="S2">
-        <v>0.3541717128989525</v>
+        <v>0.01980738007405973</v>
       </c>
       <c r="T2">
-        <v>0.3541717128989524</v>
+        <v>0.01980738007405973</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.75560066666667</v>
+        <v>15.93194</v>
       </c>
       <c r="H3">
-        <v>50.266802</v>
+        <v>47.79582</v>
       </c>
       <c r="I3">
-        <v>0.9064438825950116</v>
+        <v>0.9552847657129105</v>
       </c>
       <c r="J3">
-        <v>0.9064438825950115</v>
+        <v>0.9552847657129107</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>79.04420999999999</v>
       </c>
       <c r="O3">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="P3">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="Q3">
-        <v>441.4777392573799</v>
+        <v>419.7758703557999</v>
       </c>
       <c r="R3">
-        <v>3973.29965331642</v>
+        <v>3777.982833202199</v>
       </c>
       <c r="S3">
-        <v>0.2919791942098126</v>
+        <v>0.5377001781816458</v>
       </c>
       <c r="T3">
-        <v>0.2919791942098125</v>
+        <v>0.5377001781816459</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.75560066666667</v>
+        <v>15.93194</v>
       </c>
       <c r="H4">
-        <v>50.266802</v>
+        <v>47.79582</v>
       </c>
       <c r="I4">
-        <v>0.9064438825950116</v>
+        <v>0.9552847657129105</v>
       </c>
       <c r="J4">
-        <v>0.9064438825950115</v>
+        <v>0.9552847657129107</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.48872</v>
+        <v>19.49164633333333</v>
       </c>
       <c r="N4">
-        <v>70.46615999999999</v>
+        <v>58.47493899999999</v>
       </c>
       <c r="O4">
-        <v>0.287158400519034</v>
+        <v>0.4163964733179342</v>
       </c>
       <c r="P4">
-        <v>0.2871584005190339</v>
+        <v>0.4163964733179341</v>
       </c>
       <c r="Q4">
-        <v>393.5676124911466</v>
+        <v>310.5397398838866</v>
       </c>
       <c r="R4">
-        <v>3542.108512420319</v>
+        <v>2794.857658954979</v>
       </c>
       <c r="S4">
-        <v>0.2602929754862465</v>
+        <v>0.397777207457205</v>
       </c>
       <c r="T4">
-        <v>0.2602929754862465</v>
+        <v>0.397777207457205</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.230649</v>
       </c>
       <c r="I5">
-        <v>0.004159213770485276</v>
+        <v>0.004609931913019111</v>
       </c>
       <c r="J5">
-        <v>0.004159213770485276</v>
+        <v>0.004609931913019112</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.96029466666667</v>
+        <v>0.9705896666666667</v>
       </c>
       <c r="N5">
-        <v>95.88088399999999</v>
+        <v>2.911769</v>
       </c>
       <c r="O5">
-        <v>0.3907265741426954</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="P5">
-        <v>0.3907265741426953</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="Q5">
-        <v>2.457203334857333</v>
+        <v>0.07462184534233333</v>
       </c>
       <c r="R5">
-        <v>22.114830013716</v>
+        <v>0.671596608081</v>
       </c>
       <c r="S5">
-        <v>0.001625115347668835</v>
+        <v>9.558476885011707E-05</v>
       </c>
       <c r="T5">
-        <v>0.001625115347668835</v>
+        <v>9.55847688501171E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.230649</v>
       </c>
       <c r="I6">
-        <v>0.004159213770485276</v>
+        <v>0.004609931913019111</v>
       </c>
       <c r="J6">
-        <v>0.004159213770485276</v>
+        <v>0.004609931913019112</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>79.04420999999999</v>
       </c>
       <c r="O6">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="P6">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="Q6">
         <v>2.025718665809999</v>
@@ -818,10 +818,10 @@
         <v>18.23146799229</v>
       </c>
       <c r="S6">
-        <v>0.001339745249067149</v>
+        <v>0.002594787753352038</v>
       </c>
       <c r="T6">
-        <v>0.001339745249067149</v>
+        <v>0.002594787753352039</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.230649</v>
       </c>
       <c r="I7">
-        <v>0.004159213770485276</v>
+        <v>0.004609931913019111</v>
       </c>
       <c r="J7">
-        <v>0.004159213770485276</v>
+        <v>0.004609931913019112</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.48872</v>
+        <v>19.49164633333333</v>
       </c>
       <c r="N7">
-        <v>70.46615999999999</v>
+        <v>58.47493899999999</v>
       </c>
       <c r="O7">
-        <v>0.287158400519034</v>
+        <v>0.4163964733179342</v>
       </c>
       <c r="P7">
-        <v>0.2871584005190339</v>
+        <v>0.4163964733179341</v>
       </c>
       <c r="Q7">
-        <v>1.80588325976</v>
+        <v>1.498576245045666</v>
       </c>
       <c r="R7">
-        <v>16.25294933784</v>
+        <v>13.487186205411</v>
       </c>
       <c r="S7">
-        <v>0.001194353173749293</v>
+        <v>0.001919559390816956</v>
       </c>
       <c r="T7">
-        <v>0.001194353173749292</v>
+        <v>0.001919559390816956</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.652500333333333</v>
+        <v>0.6688636666666667</v>
       </c>
       <c r="H8">
-        <v>4.957501</v>
+        <v>2.006591</v>
       </c>
       <c r="I8">
-        <v>0.0893969036345032</v>
+        <v>0.04010530237407027</v>
       </c>
       <c r="J8">
-        <v>0.08939690363450319</v>
+        <v>0.04010530237407027</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.96029466666667</v>
+        <v>0.9705896666666667</v>
       </c>
       <c r="N8">
-        <v>95.88088399999999</v>
+        <v>2.911769</v>
       </c>
       <c r="O8">
-        <v>0.3907265741426954</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="P8">
-        <v>0.3907265741426953</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="Q8">
-        <v>52.81439759009822</v>
+        <v>0.6491921632754445</v>
       </c>
       <c r="R8">
-        <v>475.329578310884</v>
+        <v>5.842729469479001</v>
       </c>
       <c r="S8">
-        <v>0.03492974589607411</v>
+        <v>0.0008315645717593631</v>
       </c>
       <c r="T8">
-        <v>0.0349297458960741</v>
+        <v>0.0008315645717593631</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.652500333333333</v>
+        <v>0.6688636666666667</v>
       </c>
       <c r="H9">
-        <v>4.957501</v>
+        <v>2.006591</v>
       </c>
       <c r="I9">
-        <v>0.0893969036345032</v>
+        <v>0.04010530237407027</v>
       </c>
       <c r="J9">
-        <v>0.08939690363450319</v>
+        <v>0.04010530237407027</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>79.04420999999999</v>
       </c>
       <c r="O9">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="P9">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="Q9">
-        <v>43.54019445768999</v>
+        <v>17.62326670979</v>
       </c>
       <c r="R9">
-        <v>391.8617501192099</v>
+        <v>158.60940038811</v>
       </c>
       <c r="S9">
-        <v>0.02879608587939093</v>
+        <v>0.02257403133239867</v>
       </c>
       <c r="T9">
-        <v>0.02879608587939093</v>
+        <v>0.02257403133239867</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.652500333333333</v>
+        <v>0.6688636666666667</v>
       </c>
       <c r="H10">
-        <v>4.957501</v>
+        <v>2.006591</v>
       </c>
       <c r="I10">
-        <v>0.0893969036345032</v>
+        <v>0.04010530237407027</v>
       </c>
       <c r="J10">
-        <v>0.08939690363450319</v>
+        <v>0.04010530237407027</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.48872</v>
+        <v>19.49164633333333</v>
       </c>
       <c r="N10">
-        <v>70.46615999999999</v>
+        <v>58.47493899999999</v>
       </c>
       <c r="O10">
-        <v>0.287158400519034</v>
+        <v>0.4163964733179342</v>
       </c>
       <c r="P10">
-        <v>0.2871584005190339</v>
+        <v>0.4163964733179341</v>
       </c>
       <c r="Q10">
-        <v>38.81511762957333</v>
+        <v>13.03725403588322</v>
       </c>
       <c r="R10">
-        <v>349.3360586661599</v>
+        <v>117.335286322949</v>
       </c>
       <c r="S10">
-        <v>0.02567107185903815</v>
+        <v>0.01669970646991223</v>
       </c>
       <c r="T10">
-        <v>0.02567107185903814</v>
+        <v>0.01669970646991223</v>
       </c>
     </row>
   </sheetData>
